--- a/output/整体_processed.xlsx
+++ b/output/整体_processed.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -45,14 +45,6 @@
       <name val="等线"/>
       <charset val="134"/>
       <family val="3"/>
-      <color theme="1"/>
-      <sz val="10"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <family val="3"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="10"/>
@@ -67,10 +59,10 @@
     </font>
     <font>
       <name val="等线"/>
-      <family val="2"/>
-      <b val="1"/>
+      <charset val="134"/>
+      <family val="3"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -88,7 +80,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -147,21 +139,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FFDEE0E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -209,79 +186,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -631,11 +594,12 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
+    <col width="8.33203125" customWidth="1" min="4" max="4"/>
     <col width="12.25" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="10.25" customWidth="1" min="8" max="8"/>
   </cols>
@@ -681,266 +645,266 @@
           <t>Adjusted Sharpe Ratio</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Gainer</t>
         </is>
       </c>
     </row>
     <row r="2" ht="26.5" customHeight="1" thickBot="1">
-      <c r="A2" s="12" t="inlineStr">
+      <c r="A2" s="14" t="inlineStr">
         <is>
           <t>美国</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
         <is>
           <t>股票权益</t>
         </is>
       </c>
-      <c r="C2" s="21" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="D2" s="21" t="n">
-        <v>15.54</v>
-      </c>
-      <c r="E2" s="22" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="F2" s="18" t="inlineStr">
-        <is>
-          <t>60,521 B USD</t>
-        </is>
-      </c>
-      <c r="G2" s="23" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="H2" s="23" t="n">
-        <v>0.64</v>
+      <c r="C2" s="19" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="D2" s="19" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="E2" s="19" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>61,798 B USD</t>
+        </is>
+      </c>
+      <c r="G2" s="20" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2" s="20" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="3" ht="14.5" customHeight="1" thickBot="1">
-      <c r="A3" s="24" t="n"/>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="A3" s="21" t="n"/>
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>债券固收</t>
         </is>
       </c>
-      <c r="C3" s="25" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="D3" s="25" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E3" s="4" t="n">
+      <c r="C3" s="20" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="D3" s="20" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E3" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="F3" s="19" t="inlineStr">
-        <is>
-          <t>36,219 B USD</t>
-        </is>
-      </c>
-      <c r="G3" s="23" t="n">
+      <c r="F3" s="11" t="inlineStr">
+        <is>
+          <t>29,715 B USD</t>
+        </is>
+      </c>
+      <c r="G3" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="23" t="n">
+      <c r="H3" s="20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="14.5" customHeight="1" thickBot="1">
-      <c r="A4" s="26" t="n"/>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="A4" s="22" t="n"/>
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>房地产</t>
         </is>
       </c>
-      <c r="C4" s="27" t="n">
+      <c r="C4" s="23" t="n">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="D4" s="27" t="n">
+      <c r="D4" s="23" t="n">
         <v>-0.64</v>
       </c>
-      <c r="E4" s="4" t="n"/>
-      <c r="F4" s="5" t="n"/>
+      <c r="E4" s="7" t="n"/>
+      <c r="F4" s="7" t="n"/>
     </row>
     <row r="5" ht="14.5" customHeight="1" thickBot="1">
-      <c r="A5" s="12" t="inlineStr">
+      <c r="A5" s="14" t="inlineStr">
         <is>
           <t>中国</t>
         </is>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>股票权益</t>
         </is>
       </c>
-      <c r="C5" s="22" t="n">
-        <v>88.66</v>
-      </c>
-      <c r="D5" s="22" t="n">
-        <v>37.22</v>
-      </c>
-      <c r="E5" s="22" t="n">
-        <v>21.97</v>
-      </c>
-      <c r="F5" s="18" t="inlineStr">
-        <is>
-          <t>64,334 B CNY</t>
-        </is>
-      </c>
-      <c r="G5" s="23" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="H5" s="23" t="n">
-        <v>3.86</v>
+      <c r="C5" s="23" t="n">
+        <v>60.52</v>
+      </c>
+      <c r="D5" s="19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E5" s="19" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F5" s="7" t="inlineStr">
+        <is>
+          <t>65,583 B CNY</t>
+        </is>
+      </c>
+      <c r="G5" s="20" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="H5" s="20" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="6" ht="26.5" customHeight="1" thickBot="1">
-      <c r="A6" s="24" t="n"/>
-      <c r="B6" s="12" t="inlineStr">
+      <c r="A6" s="21" t="n"/>
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>债券固收</t>
         </is>
       </c>
-      <c r="C6" s="25" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="D6" s="25" t="n">
+      <c r="C6" s="20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D6" s="20" t="n">
         <v>1.38</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>1098 B CNY</t>
-        </is>
-      </c>
-      <c r="G6" s="23" t="n">
+      <c r="F6" s="11" t="inlineStr">
+        <is>
+          <t>1,287 B CNY</t>
+        </is>
+      </c>
+      <c r="G6" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="23" t="n">
+      <c r="H6" s="20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="14.5" customHeight="1" thickBot="1">
-      <c r="A7" s="26" t="n"/>
-      <c r="B7" s="12" t="inlineStr">
+      <c r="A7" s="22" t="n"/>
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>房地产</t>
         </is>
       </c>
-      <c r="C7" s="27" t="n">
+      <c r="C7" s="23" t="n">
         <v>-0.5</v>
       </c>
-      <c r="D7" s="27" t="n">
+      <c r="D7" s="23" t="n">
         <v>-2.8</v>
       </c>
-      <c r="E7" s="4" t="n"/>
-      <c r="F7" s="5" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
     </row>
     <row r="8" ht="14.5" customHeight="1" thickBot="1">
-      <c r="A8" s="12" t="inlineStr">
+      <c r="A8" s="14" t="inlineStr">
         <is>
           <t>香港</t>
         </is>
       </c>
-      <c r="B8" s="12" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>股票权益</t>
         </is>
       </c>
-      <c r="C8" s="22" t="n">
-        <v>-18.01</v>
-      </c>
-      <c r="D8" s="21" t="n">
-        <v>41.03</v>
-      </c>
-      <c r="E8" s="22" t="n">
-        <v>28.27</v>
-      </c>
-      <c r="F8" s="18" t="inlineStr">
-        <is>
-          <t>30,879 B HKD</t>
-        </is>
-      </c>
-      <c r="G8" s="23" t="n">
-        <v>-0.66</v>
-      </c>
-      <c r="H8" s="23" t="n">
-        <v>-0.77</v>
+      <c r="C8" s="19" t="n">
+        <v>52.56</v>
+      </c>
+      <c r="D8" s="19" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="E8" s="23" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>32,554 B HKD</t>
+        </is>
+      </c>
+      <c r="G8" s="20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H8" s="20" t="n">
+        <v>3.01</v>
       </c>
     </row>
     <row r="9" ht="14.5" customHeight="1" thickBot="1">
-      <c r="A9" s="26" t="n"/>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="A9" s="22" t="n"/>
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>房地产</t>
         </is>
       </c>
-      <c r="C9" s="27" t="n">
+      <c r="C9" s="23" t="n">
         <v>0.03</v>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="23" t="n">
         <v>-5.2</v>
       </c>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="5" t="n"/>
+      <c r="F9" s="7" t="n"/>
     </row>
     <row r="10" ht="14.5" customHeight="1" thickBot="1">
-      <c r="A10" s="12" t="inlineStr">
+      <c r="A10" s="14" t="inlineStr">
         <is>
           <t>商品与贵金属（黄金）</t>
         </is>
       </c>
-      <c r="B10" s="28" t="n"/>
-      <c r="C10" s="22" t="n">
-        <v>22.44</v>
-      </c>
-      <c r="D10" s="22" t="n">
-        <v>37.98</v>
-      </c>
-      <c r="E10" s="22" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="F10" s="18" t="inlineStr">
-        <is>
-          <t>23,786 B USD</t>
-        </is>
-      </c>
-      <c r="G10" s="23" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="H10" s="23" t="n">
-        <v>2.61</v>
+      <c r="B10" s="24" t="n"/>
+      <c r="C10" s="19" t="n">
+        <v>327.09</v>
+      </c>
+      <c r="D10" s="19" t="n">
+        <v>57.87</v>
+      </c>
+      <c r="E10" s="19" t="n">
+        <v>21.03</v>
+      </c>
+      <c r="F10" s="12" t="inlineStr">
+        <is>
+          <t>27,799 B USD</t>
+        </is>
+      </c>
+      <c r="G10" s="20" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="H10" s="20" t="n">
+        <v>15.38</v>
       </c>
     </row>
     <row r="11" ht="14.5" customHeight="1" thickBot="1">
-      <c r="A11" s="12" t="inlineStr">
+      <c r="A11" s="14" t="inlineStr">
         <is>
           <t>数字货币（BTC）</t>
         </is>
       </c>
-      <c r="B11" s="28" t="n"/>
-      <c r="C11" s="23" t="n">
-        <v>-56.42</v>
-      </c>
-      <c r="D11" s="23" t="n">
-        <v>82.51000000000001</v>
-      </c>
-      <c r="E11" s="22" t="n">
-        <v>35.87</v>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>2,140 B USD</t>
-        </is>
-      </c>
-      <c r="G11" s="23" t="n">
-        <v>-1.68</v>
-      </c>
-      <c r="H11" s="23" t="n">
-        <v>-1.68</v>
+      <c r="B11" s="24" t="n"/>
+      <c r="C11" s="19" t="n">
+        <v>-25.61</v>
+      </c>
+      <c r="D11" s="19" t="n">
+        <v>80.04000000000001</v>
+      </c>
+      <c r="E11" s="19" t="n">
+        <v>38.46</v>
+      </c>
+      <c r="F11" s="13" t="inlineStr">
+        <is>
+          <t>2,241 B USD</t>
+        </is>
+      </c>
+      <c r="G11" s="20" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="H11" s="20" t="n">
+        <v>-0.76</v>
       </c>
     </row>
   </sheetData>
@@ -962,10 +926,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -977,171 +941,123 @@
     <col width="12" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="12.33203125" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="12" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="12.33203125" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="18.25" bestFit="1" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="20" t="inlineStr">
+    <row r="1" ht="14.5" customHeight="1" thickBot="1">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>货币汇率</t>
         </is>
       </c>
-      <c r="B1" s="20" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>汇率值</t>
         </is>
       </c>
-      <c r="C1" s="20" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="D1" s="20" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>MoM(%)</t>
         </is>
       </c>
-      <c r="E1" s="20" t="inlineStr">
-        <is>
-          <t>MoM参考日期</t>
-        </is>
-      </c>
-      <c r="F1" s="20" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>YoY(%)</t>
         </is>
       </c>
-      <c r="G1" s="20" t="inlineStr">
-        <is>
-          <t>YoY参考日期</t>
-        </is>
-      </c>
-      <c r="H1" s="20" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>5年均值</t>
         </is>
       </c>
-      <c r="I1" s="20" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>5年均值周期</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="26.5" customHeight="1" thickBot="1">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>USD_CNH</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>7.1287</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.8870351060132031</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2025-08-01</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1714325862432374</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2024-09-02</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6.906616730621642</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2020-09 to 2025-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="B2" s="7" t="n">
+        <v>7.1476</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>45940</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>0.386231</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>0.912043</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>6.91408</v>
+      </c>
+      <c r="G2" s="7" t="inlineStr">
+        <is>
+          <t>2020-10 to 2025-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="26.5" customHeight="1" thickBot="1">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>USD_HKD</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>7.7947</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.6993986954749281</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2025-08-01</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.02052255557123025</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2024-09-02</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7.804322375478927</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2020-09 to 2025-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="B3" s="7" t="n">
+        <v>7.7824</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>45940</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>-0.09114999999999999</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>0.162166</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>7.805083</v>
+      </c>
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>2020-10 to 2025-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="26.5" customHeight="1" thickBot="1">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>CNH_HKD</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>1.093425168684332</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1893157073234331</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2025-08-01</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.1916266313244525</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2024-09-02</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1.132775083915489</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2020-09 to 2025-09</t>
+      <c r="B4" s="7" t="n">
+        <v>1.088813</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>45940</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>-0.47554</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>-0.7431</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>1.131687</v>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>2020-10 to 2025-10</t>
         </is>
       </c>
     </row>
